--- a/leson4/Folder/Excel.xlsx
+++ b/leson4/Folder/Excel.xlsx
@@ -174,38 +174,38 @@
         <family val="3"/>
         <charset val="204"/>
       </rPr>
-      <t>&lt;style&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>body</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> { </t>
+      <t>&lt;s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF39892F"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>png</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF39892F"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
     </r>
     <r>
       <rPr>
@@ -215,7 +215,7 @@
         <family val="3"/>
         <charset val="204"/>
       </rPr>
-      <t>background-image</t>
+      <t>background-repeat</t>
     </r>
     <r>
       <rPr>
@@ -235,18 +235,77 @@
         <family val="3"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> repeat-y, repeat-y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB61039"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>background-position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF39892F"/>
         <rFont val="Courier New"/>
         <family val="3"/>
         <charset val="204"/>
       </rPr>
-      <t>url(</t>
+      <t xml:space="preserve"> left, right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB61039"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>background-attachment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -256,316 +315,18 @@
         <family val="3"/>
         <charset val="204"/>
       </rPr>
-      <t>images/pattern-left.png</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF39892F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF39892F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF39892F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>url(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF39892F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>images/pattern-right.png</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF39892F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB61039"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>background-repeat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF39892F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> repeat-y, repeat-y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB61039"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>background-position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF39892F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> left, right</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB61039"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>background-attachment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF39892F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> fixed, fixed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">; } </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006699"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;/style&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006699"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;/head&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006699"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;body&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006699"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;div</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFB61039"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t> style=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF39892F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"height:2000px"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006699"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF006699"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;/div&gt;</t>
+      <t xml:space="preserve"> fixed, fixe</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>div&gt;</t>
     </r>
     <r>
       <rPr>
@@ -615,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,14 +416,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF39892F"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="204"/>
